--- a/scripts/Enchantment Details.xlsx
+++ b/scripts/Enchantment Details.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t xml:space="preserve">Enchantment</t>
   </si>
@@ -269,6 +269,15 @@
   </si>
   <si>
     <t xml:space="preserve">Increases sweep attack damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swift_sneak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increases speed while sneaking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leggings</t>
   </si>
   <si>
     <t xml:space="preserve">thorns</t>
@@ -380,9 +389,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Description" displayName="Description" ref="B:B" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Description" displayName="Description" ref="A1" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="Description"/>
+    <tableColumn id="1" name="Enchantment"/>
   </tableColumns>
 </table>
 </file>
@@ -395,7 +404,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
+      <selection pane="topLeft" activeCell="F41" activeCellId="0" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -810,32 +819,42 @@
         <v>84</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/scripts/Enchantment Details.xlsx
+++ b/scripts/Enchantment Details.xlsx
@@ -404,7 +404,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F41" activeCellId="0" sqref="F41"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/scripts/Enchantment Details.xlsx
+++ b/scripts/Enchantment Details.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="93">
   <si>
     <t xml:space="preserve">Enchantment</t>
   </si>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">aqua_affinity</t>
   </si>
   <si>
-    <t xml:space="preserve">Speeds up mining underwater</t>
+    <t xml:space="preserve">Increases mining speed while underwater</t>
   </si>
   <si>
     <t xml:space="preserve">Helmets</t>
@@ -46,73 +46,76 @@
     <t xml:space="preserve">Increases damage dealt to arthropods</t>
   </si>
   <si>
+    <t xml:space="preserve">Melee Weapons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">binding_curse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makes the wearer unable to remove the armor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blast_protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduces damage taken from explosions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">channeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strikes lightning when thrown in a thunderstorm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tridents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depth_strider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increases swimming speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increases mining speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feather_falling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduces fall damage taken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fire_aspect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets the target on fire</t>
+  </si>
+  <si>
     <t xml:space="preserve">Swords</t>
   </si>
   <si>
-    <t xml:space="preserve">binding_curse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makes the wearer unable to take off the armor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blast_protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reduces taken explosion damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">channeling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strikes lightning during storms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tridents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">depth_strider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makes the wearer swim faster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increases mining speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feather_falling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reduces fall damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fire_aspect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lights targets on fire</t>
-  </si>
-  <si>
     <t xml:space="preserve">fire_protection</t>
   </si>
   <si>
-    <t xml:space="preserve">Reduces taken fire damage</t>
+    <t xml:space="preserve">Reduces damage taken from fire</t>
   </si>
   <si>
     <t xml:space="preserve">flame</t>
   </si>
   <si>
-    <t xml:space="preserve">Lights arrows on fire</t>
+    <t xml:space="preserve">Sets shot arrows on fire</t>
   </si>
   <si>
     <t xml:space="preserve">Bows</t>
@@ -121,13 +124,13 @@
     <t xml:space="preserve">fortune</t>
   </si>
   <si>
-    <t xml:space="preserve">Increases drop rates from ores</t>
+    <t xml:space="preserve">Increases drop amount from some blocks</t>
   </si>
   <si>
     <t xml:space="preserve">frost_walker</t>
   </si>
   <si>
-    <t xml:space="preserve">Creates ice when walking on water</t>
+    <t xml:space="preserve">Creates an ice path when walking on water</t>
   </si>
   <si>
     <t xml:space="preserve">impaling</t>
@@ -139,7 +142,7 @@
     <t xml:space="preserve">infinity</t>
   </si>
   <si>
-    <t xml:space="preserve">Stops the bow from consuming arrows</t>
+    <t xml:space="preserve">Prevents arrows from being consumed when shot</t>
   </si>
   <si>
     <t xml:space="preserve">knockback</t>
@@ -151,13 +154,13 @@
     <t xml:space="preserve">looting</t>
   </si>
   <si>
-    <t xml:space="preserve">Increases loot drops from mobs</t>
+    <t xml:space="preserve">Increases amount of loot dropped by mobs</t>
   </si>
   <si>
     <t xml:space="preserve">loyalty</t>
   </si>
   <si>
-    <t xml:space="preserve">Returns trident to thrower</t>
+    <t xml:space="preserve">Returns trident to thrower after it is thrown</t>
   </si>
   <si>
     <t xml:space="preserve">luck_of_the_sea</t>
@@ -187,7 +190,7 @@
     <t xml:space="preserve">multishot</t>
   </si>
   <si>
-    <t xml:space="preserve">Shoots multiple arrows</t>
+    <t xml:space="preserve">Shoots three projectiles at once</t>
   </si>
   <si>
     <t xml:space="preserve">Crossbows</t>
@@ -196,13 +199,13 @@
     <t xml:space="preserve">piercing</t>
   </si>
   <si>
-    <t xml:space="preserve">Arrows can pierce through targets and shields</t>
+    <t xml:space="preserve">Allows arrows to pierce through targets and shields</t>
   </si>
   <si>
     <t xml:space="preserve">power</t>
   </si>
   <si>
-    <t xml:space="preserve">Increases damage dealt </t>
+    <t xml:space="preserve">Increases damage dealt with arrows</t>
   </si>
   <si>
     <t xml:space="preserve">projectile_protection</t>
@@ -220,10 +223,13 @@
     <t xml:space="preserve">punch</t>
   </si>
   <si>
+    <t xml:space="preserve">Increases knockback dealt with arrows</t>
+  </si>
+  <si>
     <t xml:space="preserve">quick_charge</t>
   </si>
   <si>
-    <t xml:space="preserve">Reloads arrows quicker</t>
+    <t xml:space="preserve">Reloads the crossbow quicker</t>
   </si>
   <si>
     <t xml:space="preserve">respiration</t>
@@ -235,16 +241,13 @@
     <t xml:space="preserve">riptide</t>
   </si>
   <si>
-    <t xml:space="preserve">Launches the user when thrown in water</t>
+    <t xml:space="preserve">Launches the user when used in water</t>
   </si>
   <si>
     <t xml:space="preserve">sharpness</t>
   </si>
   <si>
-    <t xml:space="preserve">Increases damage dealt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melee Weapons</t>
+    <t xml:space="preserve">Increases damage dealt to everything</t>
   </si>
   <si>
     <t xml:space="preserve">silk_touch</t>
@@ -256,13 +259,13 @@
     <t xml:space="preserve">smite</t>
   </si>
   <si>
-    <t xml:space="preserve">Increases damage dealt to undead</t>
+    <t xml:space="preserve">Increases damage dealt to undead tagets</t>
   </si>
   <si>
     <t xml:space="preserve">soul_speed</t>
   </si>
   <si>
-    <t xml:space="preserve">The wearer walks faster on soul blocks</t>
+    <t xml:space="preserve">Increases movement speed on soul blocks</t>
   </si>
   <si>
     <t xml:space="preserve">sweeping_edge</t>
@@ -283,7 +286,7 @@
     <t xml:space="preserve">thorns</t>
   </si>
   <si>
-    <t xml:space="preserve">Damages melee attackers of the wearer</t>
+    <t xml:space="preserve">Deals damage to those who attack the wearer</t>
   </si>
   <si>
     <t xml:space="preserve">unbreaking</t>
@@ -404,7 +407,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -522,15 +525,15 @@
         <v>26</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>11</v>
@@ -538,21 +541,21 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>22</v>
@@ -560,10 +563,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>19</v>
@@ -571,10 +574,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>16</v>
@@ -582,43 +585,43 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>16</v>
@@ -626,76 +629,76 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>11</v>
@@ -703,10 +706,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>11</v>
@@ -714,32 +717,32 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>5</v>
@@ -747,10 +750,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>16</v>
@@ -758,21 +761,21 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>22</v>
@@ -780,21 +783,21 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>19</v>
@@ -802,32 +805,32 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>11</v>
@@ -835,24 +838,24 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/Enchantment Details.xlsx
+++ b/scripts/Enchantment Details.xlsx
@@ -268,7 +268,7 @@
     <t xml:space="preserve">Increases movement speed on soul blocks</t>
   </si>
   <si>
-    <t xml:space="preserve">sweeping_edge</t>
+    <t xml:space="preserve">sweeping</t>
   </si>
   <si>
     <t xml:space="preserve">Increases sweep attack damage</t>
@@ -407,7 +407,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
+      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/scripts/Enchantment Details.xlsx
+++ b/scripts/Enchantment Details.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="99">
   <si>
     <t xml:space="preserve">Enchantment</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">Applications</t>
   </si>
   <si>
+    <t xml:space="preserve">MaxLVL</t>
+  </si>
+  <si>
     <t xml:space="preserve">aqua_affinity</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t xml:space="preserve">Helmets</t>
   </si>
   <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
     <t xml:space="preserve">bane_of_arthropods</t>
   </si>
   <si>
@@ -49,6 +55,9 @@
     <t xml:space="preserve">Melee Weapons</t>
   </si>
   <si>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
     <t xml:space="preserve">binding_curse</t>
   </si>
   <si>
@@ -64,6 +73,9 @@
     <t xml:space="preserve">Reduces damage taken from explosions</t>
   </si>
   <si>
+    <t xml:space="preserve">IV</t>
+  </si>
+  <si>
     <t xml:space="preserve">channeling</t>
   </si>
   <si>
@@ -82,6 +94,9 @@
     <t xml:space="preserve">Boots</t>
   </si>
   <si>
+    <t xml:space="preserve">III</t>
+  </si>
+  <si>
     <t xml:space="preserve">efficiency</t>
   </si>
   <si>
@@ -106,6 +121,9 @@
     <t xml:space="preserve">Swords</t>
   </si>
   <si>
+    <t xml:space="preserve">II</t>
+  </si>
+  <si>
     <t xml:space="preserve">fire_protection</t>
   </si>
   <si>
@@ -181,7 +199,7 @@
     <t xml:space="preserve">mending</t>
   </si>
   <si>
-    <t xml:space="preserve">Repairs items in exchange for experience</t>
+    <t xml:space="preserve">Repairs held items in exchange for experience</t>
   </si>
   <si>
     <t xml:space="preserve">All</t>
@@ -190,7 +208,7 @@
     <t xml:space="preserve">multishot</t>
   </si>
   <si>
-    <t xml:space="preserve">Shoots three projectiles at once</t>
+    <t xml:space="preserve">Shoots three projectiles per shot</t>
   </si>
   <si>
     <t xml:space="preserve">Crossbows</t>
@@ -253,7 +271,7 @@
     <t xml:space="preserve">silk_touch</t>
   </si>
   <si>
-    <t xml:space="preserve">Makes drops block as they are</t>
+    <t xml:space="preserve">Makes blocks drop as they are</t>
   </si>
   <si>
     <t xml:space="preserve">smite</t>
@@ -404,10 +422,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
+      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -428,434 +446,554 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>19</v>
+      <c r="D9" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/Enchantment Details.xlsx
+++ b/scripts/Enchantment Details.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="106">
   <si>
     <t xml:space="preserve">Enchantment</t>
   </si>
@@ -76,6 +76,15 @@
     <t xml:space="preserve">IV</t>
   </si>
   <si>
+    <t xml:space="preserve">breach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduces damage reduction of target’s armor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mace</t>
+  </si>
+  <si>
     <t xml:space="preserve">channeling</t>
   </si>
   <si>
@@ -85,6 +94,12 @@
     <t xml:space="preserve">Tridents</t>
   </si>
   <si>
+    <t xml:space="preserve">density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increases damage dealt when falling</t>
+  </si>
+  <si>
     <t xml:space="preserve">depth_strider</t>
   </si>
   <si>
@@ -317,6 +332,12 @@
   </si>
   <si>
     <t xml:space="preserve">Cursed item disappears upon death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wind_burst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Launch into the air on attack</t>
   </si>
 </sst>
 </file>
@@ -422,10 +443,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
+      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -517,7 +538,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,18 +552,18 @@
         <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>11</v>
@@ -550,16 +571,16 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="D9" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -573,18 +594,18 @@
         <v>32</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="C11" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>17</v>
@@ -592,16 +613,16 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="C12" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="D12" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -612,10 +633,10 @@
         <v>40</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -626,94 +647,94 @@
         <v>42</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -724,10 +745,10 @@
         <v>57</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -741,7 +762,7 @@
         <v>60</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -752,24 +773,24 @@
         <v>62</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="C24" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="D24" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -780,130 +801,130 @@
         <v>67</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="D26" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>10</v>
@@ -914,44 +935,44 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -962,10 +983,10 @@
         <v>94</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -976,24 +997,66 @@
         <v>96</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D40" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="0" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/Enchantment Details.xlsx
+++ b/scripts/Enchantment Details.xlsx
@@ -301,7 +301,7 @@
     <t xml:space="preserve">Increases movement speed on soul blocks</t>
   </si>
   <si>
-    <t xml:space="preserve">sweeping</t>
+    <t xml:space="preserve">sweeping_edge</t>
   </si>
   <si>
     <t xml:space="preserve">Increases sweep attack damage</t>
@@ -446,7 +446,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
+      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/scripts/Enchantment Details.xlsx
+++ b/scripts/Enchantment Details.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">aqua_affinity</t>
   </si>
   <si>
-    <t xml:space="preserve">Increases mining speed while underwater</t>
+    <t xml:space="preserve">Increases underwater mining speed</t>
   </si>
   <si>
     <t xml:space="preserve">Helmets</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">bane_of_arthropods</t>
   </si>
   <si>
-    <t xml:space="preserve">Increases damage dealt to arthropods</t>
+    <t xml:space="preserve">Increases damage and slows arthropods</t>
   </si>
   <si>
     <t xml:space="preserve">Melee Weapons</t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">blast_protection</t>
   </si>
   <si>
-    <t xml:space="preserve">Reduces damage taken from explosions</t>
+    <t xml:space="preserve">Reduces explosion damage and knockback</t>
   </si>
   <si>
     <t xml:space="preserve">IV</t>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">breach</t>
   </si>
   <si>
-    <t xml:space="preserve">Reduces damage reduction of target’s armor</t>
+    <t xml:space="preserve">Reduces effectiveness of targets armor</t>
   </si>
   <si>
     <t xml:space="preserve">Mace</t>
@@ -142,13 +142,13 @@
     <t xml:space="preserve">fire_protection</t>
   </si>
   <si>
-    <t xml:space="preserve">Reduces damage taken from fire</t>
+    <t xml:space="preserve">Reduces fire damage and burn time</t>
   </si>
   <si>
     <t xml:space="preserve">flame</t>
   </si>
   <si>
-    <t xml:space="preserve">Sets shot arrows on fire</t>
+    <t xml:space="preserve">Ignites shot arrows</t>
   </si>
   <si>
     <t xml:space="preserve">Bows</t>
@@ -175,13 +175,13 @@
     <t xml:space="preserve">infinity</t>
   </si>
   <si>
-    <t xml:space="preserve">Prevents arrows from being consumed when shot</t>
+    <t xml:space="preserve">Prevents consumption of arrows</t>
   </si>
   <si>
     <t xml:space="preserve">knockback</t>
   </si>
   <si>
-    <t xml:space="preserve">Increases knockback dealt</t>
+    <t xml:space="preserve">Increases melee knockback dealt</t>
   </si>
   <si>
     <t xml:space="preserve">looting</t>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">loyalty</t>
   </si>
   <si>
-    <t xml:space="preserve">Returns trident to thrower after it is thrown</t>
+    <t xml:space="preserve">Trident returns after being thrown</t>
   </si>
   <si>
     <t xml:space="preserve">luck_of_the_sea</t>
@@ -232,13 +232,13 @@
     <t xml:space="preserve">piercing</t>
   </si>
   <si>
-    <t xml:space="preserve">Allows arrows to pierce through targets and shields</t>
+    <t xml:space="preserve">Arrows pierce through entities and shields</t>
   </si>
   <si>
     <t xml:space="preserve">power</t>
   </si>
   <si>
-    <t xml:space="preserve">Increases damage dealt with arrows</t>
+    <t xml:space="preserve">Increases arrow damage</t>
   </si>
   <si>
     <t xml:space="preserve">projectile_protection</t>
@@ -250,7 +250,7 @@
     <t xml:space="preserve">protection</t>
   </si>
   <si>
-    <t xml:space="preserve">Reduces all types of damage taken</t>
+    <t xml:space="preserve">Reduces most types of damage taken</t>
   </si>
   <si>
     <t xml:space="preserve">punch</t>
@@ -262,7 +262,7 @@
     <t xml:space="preserve">quick_charge</t>
   </si>
   <si>
-    <t xml:space="preserve">Reloads the crossbow quicker</t>
+    <t xml:space="preserve">Reload the crossbow quicker</t>
   </si>
   <si>
     <t xml:space="preserve">respiration</t>
@@ -280,19 +280,19 @@
     <t xml:space="preserve">sharpness</t>
   </si>
   <si>
-    <t xml:space="preserve">Increases damage dealt to everything</t>
+    <t xml:space="preserve">Increases melee damage</t>
   </si>
   <si>
     <t xml:space="preserve">silk_touch</t>
   </si>
   <si>
-    <t xml:space="preserve">Makes blocks drop as they are</t>
+    <t xml:space="preserve">Mined blocks drop themselves</t>
   </si>
   <si>
     <t xml:space="preserve">smite</t>
   </si>
   <si>
-    <t xml:space="preserve">Increases damage dealt to undead tagets</t>
+    <t xml:space="preserve">Increases damage dealt to the undead</t>
   </si>
   <si>
     <t xml:space="preserve">soul_speed</t>
@@ -331,7 +331,7 @@
     <t xml:space="preserve">vanishing_curse</t>
   </si>
   <si>
-    <t xml:space="preserve">Cursed item disappears upon death</t>
+    <t xml:space="preserve">Item disappears on death</t>
   </si>
   <si>
     <t xml:space="preserve">wind_burst</t>
@@ -446,7 +446,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
